--- a/IvanDeliveryUserStory.xlsx
+++ b/IvanDeliveryUserStory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Github\Newsagent-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palej\Desktop\Software Design with AI for Cloud\Year_3\agile-labs3\Newsagent-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C509E4-991B-4A33-8DEA-ADBD65102EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4428F-B0E1-40F0-81A7-D46278E100FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
+    <workbookView xWindow="8490" yWindow="1180" windowWidth="23750" windowHeight="17800" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E50D5411-90E8-4070-BB74-5F2CC17D4D94}</author>
+    <author>tc={B88AF193-6551-476E-9589-CC26DE7ECF94}</author>
+    <author>tc={0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}</author>
+    <author>tc={2D7306DB-4995-4FC6-9D17-05D60384B891}</author>
+    <author>tc={3CCEDF65-67F5-4C3F-8B73-507705C60C33}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{E50D5411-90E8-4070-BB74-5F2CC17D4D94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is that user story acceptance criteria? I think its GUI acceptance criteria that we don’t deal with</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about </t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="2" shapeId="0" xr:uid="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed</t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="3" shapeId="0" xr:uid="{2D7306DB-4995-4FC6-9D17-05D60384B891}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Again, I think its GUI not story acceptance</t>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="4" shapeId="0" xr:uid="{3CCEDF65-67F5-4C3F-8B73-507705C60C33}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I think we must include everywhere that "errors" might appear or if we need to handle wrong input - I don’t think it's needed here at the logout</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>User Story</t>
   </si>
@@ -180,12 +234,15 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>1. Verify delivery driver is logged in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +283,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,15 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -325,13 +385,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +417,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Natalia Palej" id="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" userId="cad1acabf18afac6" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,38 +720,58 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2023-09-28T17:08:28.78" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{E50D5411-90E8-4070-BB74-5F2CC17D4D94}">
+    <text>Is that user story acceptance criteria? I think its GUI acceptance criteria that we don’t deal with</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2023-09-28T17:06:37.51" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
+    <text xml:space="preserve">I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about </text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2023-09-28T17:09:12.99" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
+    <text>Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed</text>
+  </threadedComment>
+  <threadedComment ref="D20" dT="2023-09-28T17:09:58.25" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{2D7306DB-4995-4FC6-9D17-05D60384B891}">
+    <text>Again, I think its GUI not story acceptance</text>
+  </threadedComment>
+  <threadedComment ref="E22" dT="2023-09-28T17:05:07.18" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{3CCEDF65-67F5-4C3F-8B73-507705C60C33}">
+    <text>I think we must include everywhere that "errors" might appear or if we need to handle wrong input - I don’t think it's needed here at the logout</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE66FCB5-4BF4-4903-BAAB-3414C50CE758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE66FCB5-4BF4-4903-BAAB-3414C50CE758}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" customWidth="1"/>
+    <col min="5" max="5" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,10 +781,10 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,12 +794,12 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -714,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -722,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -730,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -738,14 +834,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -759,20 +855,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -780,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -788,12 +884,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -801,103 +897,105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="12" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="17" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -907,5 +1005,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IvanDeliveryUserStory.xlsx
+++ b/IvanDeliveryUserStory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palej\Desktop\Software Design with AI for Cloud\Year_3\agile-labs3\Newsagent-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Github\Newsagent-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B4428F-B0E1-40F0-81A7-D46278E100FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63750CFB-C344-4B5C-BC97-2B3EE47FD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="1180" windowWidth="23750" windowHeight="17800" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="31080" windowHeight="18330" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,15 +50,19 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Is that user story acceptance criteria? I think its GUI acceptance criteria that we don’t deal with</t>
+    Is that user story acceptance criteria? I think its GUI acceptance criteria that we don’t deal with
+Reply:
+    Not sure Ok</t>
       </text>
     </comment>
     <comment ref="E10" authorId="1" shapeId="0" xr:uid="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about </t>
+    I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about 
+Reply:
+    Maybe we should clarify with client? In case he want to get particular date for customer it would be handy?</t>
       </text>
     </comment>
     <comment ref="D16" authorId="2" shapeId="0" xr:uid="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
@@ -66,7 +70,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed</t>
+    Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed
+Reply:
+    ok</t>
       </text>
     </comment>
     <comment ref="D20" authorId="3" shapeId="0" xr:uid="{2D7306DB-4995-4FC6-9D17-05D60384B891}">
@@ -74,7 +80,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Again, I think its GUI not story acceptance</t>
+    Again, I think its GUI not story acceptance
+Reply:
+    Not sure ok</t>
       </text>
     </comment>
     <comment ref="E22" authorId="4" shapeId="0" xr:uid="{3CCEDF65-67F5-4C3F-8B73-507705C60C33}">
@@ -82,7 +90,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    I think we must include everywhere that "errors" might appear or if we need to handle wrong input - I don’t think it's needed here at the logout</t>
+    I think we must include everywhere that "errors" might appear or if we need to handle wrong input - I don’t think it's needed here at the logout
+Reply:
+    ok</t>
       </text>
     </comment>
   </commentList>
@@ -242,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +293,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,6 +432,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ivan Lapickij" id="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" userId="86cab317083f9d19" providerId="Windows Live"/>
   <person displayName="Natalia Palej" id="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" userId="cad1acabf18afac6" providerId="Windows Live"/>
 </personList>
 </file>
@@ -725,17 +737,32 @@
   <threadedComment ref="D3" dT="2023-09-28T17:08:28.78" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{E50D5411-90E8-4070-BB74-5F2CC17D4D94}">
     <text>Is that user story acceptance criteria? I think its GUI acceptance criteria that we don’t deal with</text>
   </threadedComment>
+  <threadedComment ref="D3" dT="2023-09-29T00:39:02.10" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{D75A0465-AD18-4E46-B443-6F71C3FC570E}" parentId="{E50D5411-90E8-4070-BB74-5F2CC17D4D94}">
+    <text>Not sure Ok</text>
+  </threadedComment>
   <threadedComment ref="E10" dT="2023-09-28T17:06:37.51" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
     <text xml:space="preserve">I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about </text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2023-09-29T00:38:40.72" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{0195C943-E4A7-4E63-95A5-CB2469414B1B}" parentId="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
+    <text>Maybe we should clarify with client? In case he want to get particular date for customer it would be handy?</text>
   </threadedComment>
   <threadedComment ref="D16" dT="2023-09-28T17:09:12.99" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
     <text>Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed</text>
   </threadedComment>
+  <threadedComment ref="D16" dT="2023-09-29T00:37:44.48" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{4B66379B-8463-4B6A-BEA7-0A956F0B98FB}" parentId="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
+    <text>ok</text>
+  </threadedComment>
   <threadedComment ref="D20" dT="2023-09-28T17:09:58.25" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{2D7306DB-4995-4FC6-9D17-05D60384B891}">
     <text>Again, I think its GUI not story acceptance</text>
   </threadedComment>
+  <threadedComment ref="D20" dT="2023-09-29T00:37:29.09" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{72C3445C-5615-490D-BE58-1D269139781D}" parentId="{2D7306DB-4995-4FC6-9D17-05D60384B891}">
+    <text>Not sure ok</text>
+  </threadedComment>
   <threadedComment ref="E22" dT="2023-09-28T17:05:07.18" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{3CCEDF65-67F5-4C3F-8B73-507705C60C33}">
     <text>I think we must include everywhere that "errors" might appear or if we need to handle wrong input - I don’t think it's needed here at the logout</text>
+  </threadedComment>
+  <threadedComment ref="E22" dT="2023-09-29T00:37:05.28" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{3E382E22-0146-4068-A4E0-BDE80C2796F9}" parentId="{3CCEDF65-67F5-4C3F-8B73-507705C60C33}">
+    <text>ok</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -746,32 +773,32 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.1796875" customWidth="1"/>
-    <col min="5" max="5" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -781,10 +808,10 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -799,7 +826,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -810,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -818,7 +845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -826,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -834,14 +861,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -855,20 +882,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -876,7 +903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -884,12 +911,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -897,7 +924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
@@ -905,14 +932,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -921,14 +948,14 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
@@ -945,7 +972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -954,7 +981,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -965,35 +992,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>

--- a/IvanDeliveryUserStory.xlsx
+++ b/IvanDeliveryUserStory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Github\Newsagent-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palej\Desktop\Software Design with AI for Cloud\Year_3\agile-labs3\Newsagent-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63750CFB-C344-4B5C-BC97-2B3EE47FD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E6BEA1-E767-4B20-9197-D8826DC83556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="31080" windowHeight="18330" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6F4168C7-28B8-4B96-A04E-7170FD7B4563}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,9 @@
 Comment:
     I don’t think its needed, it would mean we need extra functionality that displays calendar. I think date should just display at the doc and driver to confirm its correct. If not, he contacts newsagent which we don’t worry about 
 Reply:
-    Maybe we should clarify with client? In case he want to get particular date for customer it would be handy?</t>
+    Maybe we should clarify with client? In case he want to get particular date for customer it would be handy?
+Reply:
+    We can for sure clarify but I don’t think why would he ever need this? If he wants to know when a specific book was delivered, maybe adding "date" to invoice would be an option</t>
       </text>
     </comment>
     <comment ref="D16" authorId="2" shapeId="0" xr:uid="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
@@ -368,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +405,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,7 +415,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,6 +775,9 @@
   <threadedComment ref="E10" dT="2023-09-29T00:38:40.72" personId="{8482B02D-4B66-41C9-B315-CDACAB112CB1}" id="{0195C943-E4A7-4E63-95A5-CB2469414B1B}" parentId="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
     <text>Maybe we should clarify with client? In case he want to get particular date for customer it would be handy?</text>
   </threadedComment>
+  <threadedComment ref="E10" dT="2023-10-01T17:42:07.44" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{A979CAF8-B41E-4D91-B8DC-EC815516554B}" parentId="{B88AF193-6551-476E-9589-CC26DE7ECF94}">
+    <text>We can for sure clarify but I don’t think why would he ever need this? If he wants to know when a specific book was delivered, maybe adding "date" to invoice would be an option</text>
+  </threadedComment>
   <threadedComment ref="D16" dT="2023-09-28T17:09:12.99" personId="{93B3951B-C0AF-4B05-9662-41AB9D6E1B11}" id="{0B6B04F5-D4D6-4278-84EE-F68073BB1E9A}">
     <text>Good point although I think we need to verify it happens. If it doesn’t, then it's system issue. I think still needed</text>
   </threadedComment>
@@ -771,54 +803,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE66FCB5-4BF4-4903-BAAB-3414C50CE758}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.06640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.46484375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="57.1328125" customWidth="1"/>
+    <col min="5" max="5" width="52.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="21"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -826,10 +858,10 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
@@ -837,65 +869,65 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="10"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -903,20 +935,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -924,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
@@ -932,37 +964,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -972,19 +1004,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
@@ -992,37 +1024,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
